--- a/ISRaD_data_files/Torn_2002.xlsx
+++ b/ISRaD_data_files/Torn_2002.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A74052E-FCA6-4C00-B6E4-DAE9B0AEF01D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23140" windowHeight="15220" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23136" windowHeight="15216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1152">
   <si>
     <t>entry_name</t>
   </si>
@@ -501,9 +507,6 @@
     <t>control</t>
   </si>
   <si>
-    <t>Oll</t>
-  </si>
-  <si>
     <t>USDA</t>
   </si>
   <si>
@@ -3449,12 +3452,51 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Alfisols</t>
+  </si>
+  <si>
+    <t>Andisols</t>
+  </si>
+  <si>
+    <t>Aridisols</t>
+  </si>
+  <si>
+    <t>Entisols</t>
+  </si>
+  <si>
+    <t>Gelisols</t>
+  </si>
+  <si>
+    <t>Histosols</t>
+  </si>
+  <si>
+    <t>Inceptisols</t>
+  </si>
+  <si>
+    <t>Mollisols</t>
+  </si>
+  <si>
+    <t>Oxisols</t>
+  </si>
+  <si>
+    <t>Spodosols</t>
+  </si>
+  <si>
+    <t>Ultisols</t>
+  </si>
+  <si>
+    <t>Vertisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3562,6 +3604,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3845,20 +3890,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3908,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3955,7 +4000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3993,7 +4038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4004,13 +4049,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E4" t="s">
         <v>1094</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -4022,16 +4067,16 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P4" t="s">
         <v>50</v>
@@ -4039,8 +4084,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4053,20 +4098,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4112,7 +4157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4129,12 +4174,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -4158,22 +4203,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4214,76 +4259,79 @@
         <v>79</v>
       </c>
       <c r="N1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>85</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>89</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>94</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>98</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>101</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4323,77 +4371,77 @@
       <c r="M2" t="s">
         <v>111</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>112</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>113</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>115</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>116</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>117</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>118</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>119</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>120</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>121</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>123</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>124</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>125</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>126</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>127</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>128</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>129</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>130</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>131</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>132</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>133</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4421,29 +4469,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>140</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>141</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>142</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>139</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>143</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>144</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>145</v>
-      </c>
-      <c r="V3" t="s">
-        <v>146</v>
       </c>
       <c r="W3" t="s">
         <v>146</v>
@@ -4452,51 +4497,54 @@
         <v>146</v>
       </c>
       <c r="Y3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" t="s">
         <v>147</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>148</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>149</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>150</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>151</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>152</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>143</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>153</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>154</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>155</v>
       </c>
       <c r="AI3" t="s">
         <v>155</v>
       </c>
       <c r="AJ3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -4514,33 +4562,30 @@
         <v>520</v>
       </c>
       <c r="N4" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="U4" t="s">
         <v>158</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>159</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Z4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AB4" t="s">
         <v>160</v>
       </c>
-      <c r="Y4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -4558,33 +4603,30 @@
         <v>520</v>
       </c>
       <c r="N5" t="s">
-        <v>157</v>
-      </c>
-      <c r="P5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="U5" t="s">
         <v>158</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>159</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Z5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AB5" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -4596,34 +4638,41 @@
         <v>156</v>
       </c>
       <c r="L6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M6">
         <v>430</v>
       </c>
       <c r="N6" t="s">
-        <v>157</v>
-      </c>
-      <c r="P6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="U6" t="s">
         <v>158</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>159</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Z6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AB6" t="s">
         <v>160</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64DE16FC-C811-48D5-97CD-EB19D517B7BE}">
+          <x14:formula1>
+            <xm:f>'controlled vocabulary'!$E$4:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4632,14 +4681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4653,106 +4702,106 @@
         <v>70</v>
       </c>
       <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>166</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>170</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>171</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>172</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>173</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>177</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>178</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>179</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>180</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>181</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>182</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>183</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>184</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>185</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>186</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>187</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>188</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>189</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>190</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>191</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>192</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>193</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>194</v>
       </c>
-      <c r="AK1" t="s">
-        <v>195</v>
-      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4763,106 +4812,106 @@
         <v>103</v>
       </c>
       <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
         <v>196</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>197</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>199</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>200</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>201</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>202</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>203</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>204</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>205</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>206</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>208</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>209</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>210</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>211</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>212</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>213</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>214</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>216</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>217</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>218</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>219</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>220</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>221</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>222</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>223</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>224</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>225</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>226</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>227</v>
       </c>
-      <c r="AK2" t="s">
-        <v>228</v>
-      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4882,25 +4931,25 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" t="s">
         <v>229</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>230</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>231</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>232</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>234</v>
-      </c>
-      <c r="R3" t="s">
-        <v>235</v>
       </c>
       <c r="S3" t="s">
         <v>137</v>
@@ -4909,7 +4958,7 @@
         <v>137</v>
       </c>
       <c r="U3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V3" t="s">
         <v>143</v>
@@ -4918,28 +4967,28 @@
         <v>143</v>
       </c>
       <c r="Z3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA3" t="s">
         <v>237</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC3" t="s">
         <v>238</v>
       </c>
-      <c r="AB3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>239</v>
       </c>
-      <c r="AE3" t="s">
-        <v>240</v>
-      </c>
       <c r="AF3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +5003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4964,16 +5013,16 @@
       <selection pane="bottomRight" activeCell="AW36" sqref="AW36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4984,292 +5033,292 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
         <v>241</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>242</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>243</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>245</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>246</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>247</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>248</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>249</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>250</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>251</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>252</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>254</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>255</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>256</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>257</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>258</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>259</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>260</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>261</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>263</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>264</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>265</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>266</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>267</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>268</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>270</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>271</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>272</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>273</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>274</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>275</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>276</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>277</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>278</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>279</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>280</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>281</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>282</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>283</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>284</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>285</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>286</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>287</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>288</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>289</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>290</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>291</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>292</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>293</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>294</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>295</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>296</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>297</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>298</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>299</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>300</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>301</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>302</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>303</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>304</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>305</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>306</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>307</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>308</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>309</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>310</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>311</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>312</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>313</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>314</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>315</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>316</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>317</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>318</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>319</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>320</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>321</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>322</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>323</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>324</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>325</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>326</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>327</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>328</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>329</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>330</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>331</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>332</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>333</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>334</v>
       </c>
-      <c r="CT1" t="s">
-        <v>335</v>
-      </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5280,292 +5329,292 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
         <v>336</v>
       </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>337</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>338</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>339</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>340</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>341</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>342</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>343</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>344</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>345</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>346</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>347</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>348</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>349</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>350</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>351</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>352</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>353</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>354</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>355</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>356</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>357</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>358</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>359</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>360</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>361</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>362</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>363</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>364</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>365</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>366</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>367</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>368</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>369</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>370</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>371</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>372</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>373</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>374</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>375</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>376</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>377</v>
       </c>
-      <c r="AW2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>378</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>379</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>380</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>381</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>382</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>383</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>384</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>385</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>386</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>387</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>388</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>389</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>390</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>391</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>392</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>393</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>394</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>395</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>396</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>397</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>398</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>399</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>400</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>401</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>402</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>403</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>404</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>405</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>406</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>407</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>408</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>409</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>410</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>411</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>412</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>413</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>414</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>415</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>416</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>417</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>418</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>419</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>420</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>421</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>422</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>423</v>
       </c>
-      <c r="CT2" t="s">
-        <v>424</v>
-      </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5591,13 +5640,13 @@
         <v>137</v>
       </c>
       <c r="O3" t="s">
+        <v>424</v>
+      </c>
+      <c r="P3" t="s">
         <v>425</v>
       </c>
-      <c r="P3" t="s">
-        <v>426</v>
-      </c>
       <c r="Q3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S3" t="s">
         <v>143</v>
@@ -5615,34 +5664,34 @@
         <v>36</v>
       </c>
       <c r="X3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC3" t="s">
         <v>427</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>428</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>429</v>
       </c>
-      <c r="AE3" t="s">
-        <v>430</v>
-      </c>
       <c r="AF3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AH3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AI3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AK3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AL3" t="s">
         <v>143</v>
@@ -5666,1279 +5715,1279 @@
         <v>143</v>
       </c>
       <c r="AS3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AT3" t="s">
         <v>143</v>
       </c>
       <c r="AU3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW3" t="s">
         <v>238</v>
       </c>
-      <c r="AV3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AY3" t="s">
         <v>239</v>
       </c>
-      <c r="AY3" t="s">
-        <v>240</v>
-      </c>
       <c r="AZ3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BA3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BE3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BF3" t="s">
+        <v>431</v>
+      </c>
+      <c r="BG3" t="s">
         <v>432</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
+        <v>432</v>
+      </c>
+      <c r="BL3" t="s">
         <v>433</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BM3" t="s">
         <v>433</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BN3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>433</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>433</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>433</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>433</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>433</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>433</v>
+      </c>
+      <c r="CE3" t="s">
         <v>434</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="CF3" t="s">
         <v>434</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="CG3" t="s">
         <v>434</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="CH3" t="s">
         <v>434</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="CI3" t="s">
         <v>434</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="CJ3" t="s">
         <v>434</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="CK3" t="s">
         <v>434</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="CL3" t="s">
         <v>434</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="CM3" t="s">
         <v>434</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="CN3" t="s">
         <v>434</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CO3" t="s">
         <v>434</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CP3" t="s">
         <v>434</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CQ3" t="s">
         <v>434</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CR3" t="s">
         <v>434</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CS3" t="s">
         <v>434</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CT3" t="s">
         <v>434</v>
       </c>
-      <c r="CD3" t="s">
-        <v>434</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>435</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>435</v>
-      </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E4" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" t="s">
         <v>436</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>437</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>438</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P4" t="s">
         <v>439</v>
       </c>
-      <c r="N4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="AA4" t="s">
         <v>440</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>441</v>
       </c>
       <c r="AB4">
         <v>6.11</v>
       </c>
       <c r="AC4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AR4" t="s">
         <v>442</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>443</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AV4" t="s">
         <v>444</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>445</v>
       </c>
-      <c r="AW4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BC4" t="s">
         <v>446</v>
       </c>
-      <c r="BC4" t="s">
-        <v>447</v>
-      </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J5" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" t="s">
         <v>438</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P5" t="s">
         <v>477</v>
       </c>
-      <c r="K5" t="s">
-        <v>439</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="AA5" t="s">
         <v>478</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>479</v>
       </c>
       <c r="AB5">
         <v>6.25</v>
       </c>
       <c r="AC5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO5" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR5" t="s">
         <v>480</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>481</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AV5" t="s">
         <v>482</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>483</v>
       </c>
-      <c r="AW5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BC5" t="s">
         <v>484</v>
       </c>
-      <c r="BC5" t="s">
-        <v>485</v>
-      </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J6" t="s">
+        <v>492</v>
+      </c>
+      <c r="K6" t="s">
+        <v>438</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P6" t="s">
         <v>493</v>
       </c>
-      <c r="K6" t="s">
-        <v>439</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="AA6" t="s">
         <v>494</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>495</v>
       </c>
       <c r="AB6">
         <v>6.39</v>
       </c>
       <c r="AC6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AR6" t="s">
         <v>496</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>497</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AV6" t="s">
         <v>498</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>499</v>
       </c>
-      <c r="AW6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BC6" t="s">
         <v>500</v>
       </c>
-      <c r="BC6" t="s">
-        <v>501</v>
-      </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K7" t="s">
+        <v>438</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P7" t="s">
         <v>515</v>
       </c>
-      <c r="K7" t="s">
-        <v>439</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1131</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="AC7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO7" t="s">
         <v>516</v>
       </c>
-      <c r="AC7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO7" t="s">
+      <c r="AR7" t="s">
         <v>517</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>518</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AV7" t="s">
         <v>519</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>520</v>
       </c>
-      <c r="AW7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BC7" t="s">
         <v>521</v>
       </c>
-      <c r="BC7" t="s">
-        <v>522</v>
-      </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J8" t="s">
+        <v>541</v>
+      </c>
+      <c r="K8" t="s">
+        <v>438</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P8" t="s">
         <v>542</v>
       </c>
-      <c r="K8" t="s">
-        <v>439</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="AA8" t="s">
         <v>543</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>544</v>
       </c>
       <c r="AB8">
         <v>6.43</v>
       </c>
       <c r="AC8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO8" t="s">
+        <v>544</v>
+      </c>
+      <c r="AR8" t="s">
         <v>545</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>546</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AV8" t="s">
         <v>547</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>548</v>
       </c>
-      <c r="AW8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="BC8" t="s">
         <v>549</v>
       </c>
-      <c r="BC8" t="s">
-        <v>550</v>
-      </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J9" t="s">
+        <v>577</v>
+      </c>
+      <c r="K9" t="s">
         <v>578</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P9" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA9" t="s">
         <v>579</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1130</v>
-      </c>
-      <c r="P9" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>580</v>
       </c>
       <c r="AB9">
         <v>6.59</v>
       </c>
       <c r="AC9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO9" t="s">
+        <v>580</v>
+      </c>
+      <c r="AR9" t="s">
         <v>581</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>582</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AV9" t="s">
         <v>583</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>584</v>
       </c>
-      <c r="AW9" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="BC9" t="s">
         <v>585</v>
       </c>
-      <c r="BC9" t="s">
-        <v>586</v>
-      </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I10" t="s">
+        <v>577</v>
+      </c>
+      <c r="J10" t="s">
+        <v>586</v>
+      </c>
+      <c r="K10" t="s">
         <v>578</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO10" t="s">
         <v>587</v>
       </c>
-      <c r="K10" t="s">
-        <v>579</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1132</v>
-      </c>
-      <c r="P10" t="s">
-        <v>570</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AR10" t="s">
         <v>588</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>589</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AV10" t="s">
         <v>590</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>591</v>
       </c>
-      <c r="AW10" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ10" t="s">
+      <c r="BC10" t="s">
         <v>592</v>
       </c>
-      <c r="BC10" t="s">
-        <v>593</v>
-      </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C11" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J11" t="s">
+        <v>593</v>
+      </c>
+      <c r="K11" t="s">
+        <v>551</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P11" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO11" t="s">
         <v>594</v>
       </c>
-      <c r="K11" t="s">
-        <v>552</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="P11" t="s">
-        <v>570</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AR11" t="s">
         <v>595</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>596</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AV11" t="s">
         <v>597</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>598</v>
       </c>
-      <c r="AW11" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="BC11" t="s">
         <v>599</v>
       </c>
-      <c r="BC11" t="s">
-        <v>600</v>
-      </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P12" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA12" t="s">
         <v>570</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>571</v>
       </c>
       <c r="AB12">
         <v>8.4600000000000009</v>
       </c>
       <c r="AC12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO12" t="s">
+        <v>627</v>
+      </c>
+      <c r="AR12" t="s">
         <v>628</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>629</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AV12" t="s">
         <v>630</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>631</v>
       </c>
-      <c r="AW12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="BC12" t="s">
         <v>632</v>
       </c>
-      <c r="BC12" t="s">
-        <v>633</v>
-      </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I13" t="s">
+        <v>566</v>
+      </c>
+      <c r="J13" t="s">
         <v>567</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>568</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P13" t="s">
         <v>569</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P13" t="s">
-        <v>570</v>
       </c>
       <c r="AB13">
         <v>8.5399999999999991</v>
       </c>
       <c r="AC13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO13" t="s">
+        <v>571</v>
+      </c>
+      <c r="AR13" t="s">
         <v>572</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>573</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AV13" t="s">
         <v>574</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>575</v>
       </c>
-      <c r="AW13" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="BC13" t="s">
         <v>576</v>
       </c>
-      <c r="BC13" t="s">
-        <v>577</v>
-      </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" t="s">
         <v>436</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>437</v>
       </c>
-      <c r="J14" t="s">
-        <v>438</v>
-      </c>
       <c r="K14" t="s">
+        <v>447</v>
+      </c>
+      <c r="P14" t="s">
         <v>448</v>
       </c>
-      <c r="P14" t="s">
+      <c r="AC14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO14" t="s">
         <v>449</v>
       </c>
-      <c r="AC14" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="AR14" t="s">
         <v>450</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>451</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AV14" t="s">
         <v>452</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>453</v>
       </c>
-      <c r="AW14" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ14" t="s">
+      <c r="BC14" t="s">
         <v>454</v>
       </c>
-      <c r="BC14" t="s">
-        <v>455</v>
-      </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D15" t="s">
         <v>1111</v>
       </c>
-      <c r="D15" t="s">
-        <v>1112</v>
-      </c>
       <c r="E15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I15" t="s">
+        <v>437</v>
+      </c>
+      <c r="J15" t="s">
+        <v>462</v>
+      </c>
+      <c r="K15" t="s">
         <v>438</v>
       </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
         <v>463</v>
       </c>
-      <c r="K15" t="s">
-        <v>439</v>
-      </c>
-      <c r="P15" t="s">
-        <v>464</v>
-      </c>
       <c r="AC15" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO15" t="s">
+        <v>470</v>
+      </c>
+      <c r="AR15" t="s">
         <v>471</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>472</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AV15" t="s">
         <v>473</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>474</v>
       </c>
-      <c r="AW15" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ15" t="s">
+      <c r="BC15" t="s">
         <v>475</v>
       </c>
-      <c r="BC15" t="s">
-        <v>476</v>
-      </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J16" t="s">
+        <v>485</v>
+      </c>
+      <c r="K16" t="s">
+        <v>438</v>
+      </c>
+      <c r="P16" t="s">
         <v>486</v>
       </c>
-      <c r="K16" t="s">
-        <v>439</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="AC16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO16" t="s">
         <v>487</v>
       </c>
-      <c r="AC16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO16" t="s">
+      <c r="AR16" t="s">
         <v>488</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>489</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AV16" t="s">
         <v>490</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>491</v>
       </c>
-      <c r="AW16" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>492</v>
-      </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C17" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J17" t="s">
+        <v>507</v>
+      </c>
+      <c r="K17" t="s">
+        <v>438</v>
+      </c>
+      <c r="P17" t="s">
         <v>508</v>
       </c>
-      <c r="K17" t="s">
-        <v>439</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="AC17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO17" t="s">
         <v>509</v>
       </c>
-      <c r="AC17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO17" t="s">
+      <c r="AR17" t="s">
         <v>510</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>511</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AV17" t="s">
         <v>512</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>513</v>
       </c>
-      <c r="AW17" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>514</v>
-      </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J18" t="s">
+        <v>528</v>
+      </c>
+      <c r="K18" t="s">
+        <v>438</v>
+      </c>
+      <c r="P18" t="s">
         <v>529</v>
       </c>
-      <c r="K18" t="s">
-        <v>439</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="AC18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO18" t="s">
         <v>530</v>
       </c>
-      <c r="AC18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO18" t="s">
+      <c r="AR18" t="s">
         <v>531</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>532</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AV18" t="s">
         <v>533</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>534</v>
       </c>
-      <c r="AW18" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>535</v>
-      </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J19" t="s">
+        <v>550</v>
+      </c>
+      <c r="K19" t="s">
         <v>551</v>
       </c>
-      <c r="K19" t="s">
+      <c r="P19" t="s">
         <v>552</v>
       </c>
-      <c r="P19" t="s">
+      <c r="AC19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO19" t="s">
         <v>553</v>
       </c>
-      <c r="AC19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO19" t="s">
+      <c r="AR19" t="s">
         <v>554</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AS19" t="s">
         <v>555</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AV19" t="s">
         <v>556</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>557</v>
       </c>
-      <c r="AW19" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>558</v>
-      </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I20" t="s">
+        <v>550</v>
+      </c>
+      <c r="J20" t="s">
+        <v>607</v>
+      </c>
+      <c r="K20" t="s">
         <v>551</v>
       </c>
-      <c r="J20" t="s">
+      <c r="P20" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO20" t="s">
         <v>608</v>
       </c>
-      <c r="K20" t="s">
-        <v>552</v>
-      </c>
-      <c r="P20" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO20" t="s">
+      <c r="AR20" t="s">
         <v>609</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>610</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AV20" t="s">
         <v>611</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>612</v>
       </c>
-      <c r="AW20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>613</v>
-      </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C21" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D21" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J21" t="s">
+        <v>613</v>
+      </c>
+      <c r="K21" t="s">
+        <v>568</v>
+      </c>
+      <c r="P21" t="s">
         <v>614</v>
       </c>
-      <c r="K21" t="s">
-        <v>569</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="AC21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO21" t="s">
         <v>615</v>
       </c>
-      <c r="AC21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO21" t="s">
+      <c r="AR21" t="s">
         <v>616</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AS21" t="s">
         <v>617</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AV21" t="s">
         <v>618</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>619</v>
       </c>
-      <c r="AW21" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>620</v>
-      </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C22" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D22" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J22" t="s">
+        <v>641</v>
+      </c>
+      <c r="K22" t="s">
+        <v>568</v>
+      </c>
+      <c r="P22" t="s">
+        <v>621</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO22" t="s">
         <v>642</v>
       </c>
-      <c r="K22" t="s">
-        <v>569</v>
-      </c>
-      <c r="P22" t="s">
-        <v>622</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO22" t="s">
+      <c r="AR22" t="s">
         <v>643</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>644</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AV22" t="s">
         <v>645</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ22" t="s">
         <v>646</v>
       </c>
-      <c r="AW22" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C23" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D23" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J23" t="s">
+        <v>654</v>
+      </c>
+      <c r="K23" t="s">
+        <v>568</v>
+      </c>
+      <c r="P23" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO23" t="s">
         <v>655</v>
       </c>
-      <c r="K23" t="s">
-        <v>569</v>
-      </c>
-      <c r="P23" t="s">
-        <v>635</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AO23" t="s">
+      <c r="AR23" t="s">
         <v>656</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>657</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AV23" t="s">
         <v>658</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>659</v>
       </c>
-      <c r="AW23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ23" t="s">
+      <c r="BC23" t="s">
         <v>660</v>
       </c>
-      <c r="BC23" t="s">
-        <v>661</v>
-      </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D24" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I24" t="s">
+        <v>436</v>
+      </c>
+      <c r="J24" t="s">
         <v>437</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>438</v>
       </c>
-      <c r="K24" t="s">
+      <c r="P24" t="s">
         <v>439</v>
-      </c>
-      <c r="P24" t="s">
-        <v>440</v>
       </c>
       <c r="AA24">
         <v>7.48</v>
@@ -6947,57 +6996,57 @@
         <v>6.51</v>
       </c>
       <c r="AC24" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO24" t="s">
+        <v>456</v>
+      </c>
+      <c r="AR24" t="s">
         <v>457</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>458</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AV24" t="s">
         <v>459</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>460</v>
       </c>
-      <c r="AW24" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ24" t="s">
+      <c r="BC24" t="s">
         <v>461</v>
       </c>
-      <c r="BC24" t="s">
-        <v>462</v>
-      </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C25" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D25" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I25" t="s">
+        <v>437</v>
+      </c>
+      <c r="J25" t="s">
+        <v>462</v>
+      </c>
+      <c r="K25" t="s">
         <v>438</v>
       </c>
-      <c r="J25" t="s">
+      <c r="P25" t="s">
         <v>463</v>
-      </c>
-      <c r="K25" t="s">
-        <v>439</v>
-      </c>
-      <c r="P25" t="s">
-        <v>464</v>
       </c>
       <c r="AA25">
         <v>6.85</v>
@@ -7006,57 +7055,57 @@
         <v>6.45</v>
       </c>
       <c r="AC25" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO25" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR25" t="s">
         <v>465</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>466</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AV25" t="s">
         <v>467</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>468</v>
       </c>
-      <c r="AW25" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ25" t="s">
+      <c r="BC25" t="s">
         <v>469</v>
       </c>
-      <c r="BC25" t="s">
-        <v>470</v>
-      </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D26" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J26" t="s">
+        <v>485</v>
+      </c>
+      <c r="K26" t="s">
+        <v>438</v>
+      </c>
+      <c r="P26" t="s">
         <v>486</v>
-      </c>
-      <c r="K26" t="s">
-        <v>439</v>
-      </c>
-      <c r="P26" t="s">
-        <v>487</v>
       </c>
       <c r="AA26">
         <v>7.24</v>
@@ -7065,57 +7114,57 @@
         <v>6.66</v>
       </c>
       <c r="AC26" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO26" t="s">
+        <v>501</v>
+      </c>
+      <c r="AR26" t="s">
         <v>502</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>503</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AV26" t="s">
         <v>504</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>505</v>
       </c>
-      <c r="AW26" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ26" t="s">
+      <c r="BC26" t="s">
         <v>506</v>
       </c>
-      <c r="BC26" t="s">
-        <v>507</v>
-      </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C27" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D27" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AA27">
         <v>7.21</v>
@@ -7124,57 +7173,57 @@
         <v>6.51</v>
       </c>
       <c r="AC27" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO27" t="s">
+        <v>522</v>
+      </c>
+      <c r="AR27" t="s">
         <v>523</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AS27" t="s">
         <v>524</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AV27" t="s">
         <v>525</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW27" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>526</v>
       </c>
-      <c r="AW27" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ27" t="s">
+      <c r="BC27" t="s">
         <v>527</v>
       </c>
-      <c r="BC27" t="s">
-        <v>528</v>
-      </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J28" t="s">
+        <v>528</v>
+      </c>
+      <c r="K28" t="s">
+        <v>438</v>
+      </c>
+      <c r="P28" t="s">
         <v>529</v>
-      </c>
-      <c r="K28" t="s">
-        <v>439</v>
-      </c>
-      <c r="P28" t="s">
-        <v>530</v>
       </c>
       <c r="AA28">
         <v>7.29</v>
@@ -7183,57 +7232,57 @@
         <v>6.58</v>
       </c>
       <c r="AC28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO28" t="s">
+        <v>535</v>
+      </c>
+      <c r="AR28" t="s">
         <v>536</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>537</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AV28" t="s">
         <v>538</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AW28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>539</v>
       </c>
-      <c r="AW28" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ28" t="s">
+      <c r="BC28" t="s">
         <v>540</v>
       </c>
-      <c r="BC28" t="s">
-        <v>541</v>
-      </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J29" t="s">
+        <v>558</v>
+      </c>
+      <c r="K29" t="s">
+        <v>551</v>
+      </c>
+      <c r="P29" t="s">
         <v>559</v>
-      </c>
-      <c r="K29" t="s">
-        <v>552</v>
-      </c>
-      <c r="P29" t="s">
-        <v>560</v>
       </c>
       <c r="AA29">
         <v>7.74</v>
@@ -7242,151 +7291,151 @@
         <v>6.61</v>
       </c>
       <c r="AC29" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO29" t="s">
+        <v>560</v>
+      </c>
+      <c r="AR29" t="s">
         <v>561</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AS29" t="s">
         <v>562</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AV29" t="s">
         <v>563</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ29" t="s">
         <v>564</v>
       </c>
-      <c r="AW29" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ29" t="s">
+      <c r="BC29" t="s">
         <v>565</v>
       </c>
-      <c r="BC29" t="s">
-        <v>566</v>
-      </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J30" t="s">
+        <v>600</v>
+      </c>
+      <c r="K30" t="s">
+        <v>568</v>
+      </c>
+      <c r="P30" t="s">
         <v>601</v>
       </c>
-      <c r="K30" t="s">
-        <v>569</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="AO30" t="s">
         <v>602</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AR30" t="s">
         <v>603</v>
       </c>
-      <c r="AR30" t="s">
+      <c r="AS30" t="s">
         <v>604</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AV30" t="s">
         <v>605</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AW30" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ30" t="s">
         <v>606</v>
       </c>
-      <c r="AW30" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>607</v>
-      </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J31" t="s">
+        <v>620</v>
+      </c>
+      <c r="K31" t="s">
+        <v>568</v>
+      </c>
+      <c r="P31" t="s">
         <v>621</v>
       </c>
-      <c r="K31" t="s">
-        <v>569</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="AO31" t="s">
         <v>622</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AR31" t="s">
         <v>623</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AS31" t="s">
         <v>624</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AV31" t="s">
         <v>625</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AW31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ31" t="s">
         <v>626</v>
       </c>
-      <c r="AW31" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>627</v>
-      </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C32" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D32" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J32" t="s">
+        <v>633</v>
+      </c>
+      <c r="K32" t="s">
+        <v>568</v>
+      </c>
+      <c r="P32" t="s">
         <v>634</v>
-      </c>
-      <c r="K32" t="s">
-        <v>569</v>
-      </c>
-      <c r="P32" t="s">
-        <v>635</v>
       </c>
       <c r="AA32">
         <v>8.61</v>
@@ -7395,57 +7444,57 @@
         <v>7.68</v>
       </c>
       <c r="AC32" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO32" t="s">
+        <v>635</v>
+      </c>
+      <c r="AR32" t="s">
         <v>636</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>637</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AV32" t="s">
         <v>638</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AW32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ32" t="s">
         <v>639</v>
       </c>
-      <c r="AW32" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ32" t="s">
+      <c r="BC32" t="s">
         <v>640</v>
       </c>
-      <c r="BC32" t="s">
-        <v>641</v>
-      </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C33" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D33" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J33" t="s">
+        <v>647</v>
+      </c>
+      <c r="K33" t="s">
         <v>648</v>
       </c>
-      <c r="K33" t="s">
-        <v>649</v>
-      </c>
       <c r="P33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA33">
         <v>7.79</v>
@@ -7454,25 +7503,25 @@
         <v>7.42</v>
       </c>
       <c r="AC33" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AO33" t="s">
+        <v>649</v>
+      </c>
+      <c r="AR33" t="s">
         <v>650</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AS33" t="s">
         <v>651</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AV33" t="s">
         <v>652</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AW33" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AZ33" t="s">
         <v>653</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -7491,14 +7540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7509,82 +7558,82 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1" t="s">
         <v>662</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>663</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>664</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>665</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>666</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>667</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>668</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>669</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>670</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>671</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>672</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>673</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>674</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>675</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>676</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>677</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>678</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>679</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>680</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>681</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>682</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>683</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>684</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>685</v>
       </c>
-      <c r="AB1" t="s">
-        <v>686</v>
-      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7595,79 +7644,79 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
         <v>199</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
       <c r="G2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2" t="s">
         <v>687</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>688</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>689</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>690</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>691</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>692</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" t="s">
         <v>693</v>
       </c>
-      <c r="N2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>694</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>695</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" t="s">
         <v>696</v>
       </c>
-      <c r="T2" t="s">
-        <v>220</v>
-      </c>
-      <c r="U2" t="s">
-        <v>221</v>
-      </c>
-      <c r="V2" t="s">
-        <v>222</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>697</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>698</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>699</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>700</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>701</v>
       </c>
-      <c r="AB2" t="s">
-        <v>702</v>
-      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7684,34 +7733,34 @@
         <v>146</v>
       </c>
       <c r="H3" t="s">
+        <v>702</v>
+      </c>
+      <c r="L3" t="s">
         <v>703</v>
       </c>
-      <c r="L3" t="s">
-        <v>704</v>
-      </c>
       <c r="M3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N3" t="s">
         <v>143</v>
       </c>
       <c r="R3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7726,16 +7775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7746,217 +7795,217 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F1" t="s">
         <v>705</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>706</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>707</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>708</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>709</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>710</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>711</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>712</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>713</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>714</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>715</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>716</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>717</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>718</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>719</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>720</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>721</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>722</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>723</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>724</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>725</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>726</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>727</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>728</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>729</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>730</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>731</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>732</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>733</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AL1" t="s">
         <v>734</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>735</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>736</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>737</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>738</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>739</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>740</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>741</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>742</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>743</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>744</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>745</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>746</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>747</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>748</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>749</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>750</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>751</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>752</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>753</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>754</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>755</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>756</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>757</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>758</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>759</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>760</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>761</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>762</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>763</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>764</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>765</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>766</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>767</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>768</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>769</v>
       </c>
-      <c r="BU1" t="s">
-        <v>770</v>
-      </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7967,231 +8016,231 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F2" t="s">
         <v>771</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>772</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>773</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>774</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>775</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>776</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>777</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>778</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>779</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>780</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>781</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" t="s">
         <v>782</v>
       </c>
-      <c r="Q2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R2" t="s">
-        <v>200</v>
-      </c>
-      <c r="S2" t="s">
-        <v>201</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>783</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>784</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>785</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>786</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>787</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>788</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>789</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" t="s">
         <v>790</v>
       </c>
-      <c r="AC2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>791</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>792</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>793</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>794</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>795</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS2" t="s">
         <v>796</v>
       </c>
-      <c r="AL2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>385</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>390</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>401</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>408</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>797</v>
       </c>
-      <c r="AT2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>401</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>402</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>403</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>404</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>405</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>406</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>407</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>409</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>410</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>411</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>798</v>
-      </c>
       <c r="BK2" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL2" t="s">
         <v>413</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>414</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>415</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>416</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>417</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>418</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>419</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>420</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>421</v>
       </c>
-      <c r="BT2" t="s">
-        <v>422</v>
-      </c>
       <c r="BU2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G3" t="s">
         <v>799</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>800</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>801</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>802</v>
-      </c>
-      <c r="M3" t="s">
-        <v>803</v>
       </c>
       <c r="N3" t="s">
         <v>137</v>
@@ -8224,121 +8273,121 @@
         <v>143</v>
       </c>
       <c r="AA3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM3" t="s">
         <v>432</v>
       </c>
-      <c r="AM3" t="s">
-        <v>433</v>
-      </c>
       <c r="AN3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AP3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AQ3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AR3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AT3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AU3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AV3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AW3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AY3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AZ3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BA3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BB3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BD3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BE3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BF3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BG3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BH3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BI3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BJ3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BK3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BL3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BM3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BN3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BO3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BP3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BQ3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BR3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BS3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BT3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BU3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -8353,14 +8402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8371,88 +8420,88 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G1" t="s">
         <v>805</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>806</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>807</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>808</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>809</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>810</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>811</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>812</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>813</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>814</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>815</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>816</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>817</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>818</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>819</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>820</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>821</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>822</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>823</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>824</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>825</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>826</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>827</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>828</v>
       </c>
-      <c r="AD1" t="s">
-        <v>829</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8460,82 +8509,82 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" t="s">
         <v>830</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>831</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>832</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
         <v>833</v>
       </c>
-      <c r="G2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>834</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>835</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>836</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>837</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>838</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>839</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>840</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>219</v>
+      </c>
+      <c r="W2" t="s">
+        <v>220</v>
+      </c>
+      <c r="X2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y2" t="s">
         <v>841</v>
       </c>
-      <c r="V2" t="s">
-        <v>220</v>
-      </c>
-      <c r="W2" t="s">
-        <v>221</v>
-      </c>
-      <c r="X2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>842</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>843</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>844</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>845</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>846</v>
       </c>
-      <c r="AD2" t="s">
-        <v>847</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -8549,37 +8598,37 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M3" t="s">
         <v>139</v>
       </c>
       <c r="P3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Q3" t="s">
         <v>143</v>
       </c>
       <c r="T3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8594,150 +8643,150 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" t="s">
         <v>850</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>851</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>852</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>853</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>854</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>855</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>856</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>857</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>858</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>859</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>860</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>861</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>862</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>863</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>864</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>865</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>866</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>867</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>868</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>869</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>870</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>871</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>872</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>873</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>874</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>875</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>876</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>877</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>878</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>879</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>880</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>881</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>882</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>883</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>884</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>885</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>886</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>887</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>888</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>889</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>890</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>891</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>892</v>
       </c>
-      <c r="AR1" t="s">
-        <v>893</v>
-      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -8751,849 +8800,888 @@
         <v>98</v>
       </c>
       <c r="E2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>91</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>94</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
-        <v>168</v>
-      </c>
       <c r="M2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" t="s">
         <v>170</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>171</v>
       </c>
-      <c r="O2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
-        <v>174</v>
-      </c>
       <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" t="s">
+        <v>175</v>
+      </c>
+      <c r="S2" t="s">
         <v>176</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>177</v>
       </c>
-      <c r="S2" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" t="s">
-        <v>184</v>
-      </c>
       <c r="U2" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="V2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="W2" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="X2" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="Y2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Z2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AA2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>667</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>804</v>
+      </c>
+      <c r="AI2" t="s">
         <v>894</v>
       </c>
-      <c r="AB2" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>668</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>669</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>675</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>805</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
+        <v>810</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>812</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>814</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>817</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>711</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>706</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>713</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
         <v>895</v>
       </c>
-      <c r="AI2" t="s">
-        <v>811</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>813</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>815</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>818</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>708</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>712</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>707</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>709</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>714</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>735</v>
+      <c r="I3" t="s">
+        <v>896</v>
+      </c>
+      <c r="J3" t="s">
+        <v>897</v>
+      </c>
+      <c r="V3" t="s">
+        <v>896</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>773</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>898</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
-      <c r="G3" t="s">
-        <v>896</v>
-      </c>
-      <c r="H3" t="s">
-        <v>897</v>
-      </c>
-      <c r="I3" t="s">
-        <v>898</v>
-      </c>
-      <c r="U3" t="s">
-        <v>897</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>774</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>899</v>
-      </c>
-      <c r="AP3" t="s">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>900</v>
       </c>
+      <c r="B4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>904</v>
+      </c>
+      <c r="H4" t="s">
+        <v>905</v>
+      </c>
+      <c r="I4" t="s">
+        <v>906</v>
+      </c>
+      <c r="J4" t="s">
+        <v>907</v>
+      </c>
+      <c r="K4" t="s">
+        <v>908</v>
+      </c>
+      <c r="L4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" t="s">
+        <v>909</v>
+      </c>
+      <c r="N4" t="s">
+        <v>910</v>
+      </c>
+      <c r="O4" t="s">
+        <v>911</v>
+      </c>
+      <c r="P4" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>913</v>
+      </c>
+      <c r="R4" t="s">
+        <v>914</v>
+      </c>
+      <c r="S4" t="s">
+        <v>902</v>
+      </c>
+      <c r="T4" t="s">
+        <v>902</v>
+      </c>
+      <c r="U4" t="s">
+        <v>915</v>
+      </c>
+      <c r="V4" t="s">
+        <v>916</v>
+      </c>
+      <c r="W4" t="s">
+        <v>917</v>
+      </c>
+      <c r="X4" t="s">
+        <v>918</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>902</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>919</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>920</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>921</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>922</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>923</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>924</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>911</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>925</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>926</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>927</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>928</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>929</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>930</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>931</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>932</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>918</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
-      <c r="A4" t="s">
-        <v>901</v>
-      </c>
-      <c r="B4" t="s">
-        <v>902</v>
-      </c>
-      <c r="C4" t="s">
-        <v>903</v>
-      </c>
-      <c r="D4" t="s">
-        <v>904</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B5" t="s">
+        <v>934</v>
+      </c>
+      <c r="D5" t="s">
+        <v>935</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>936</v>
+      </c>
+      <c r="G5" t="s">
+        <v>937</v>
+      </c>
+      <c r="H5" t="s">
+        <v>938</v>
+      </c>
+      <c r="I5" t="s">
+        <v>939</v>
+      </c>
+      <c r="J5" t="s">
+        <v>940</v>
+      </c>
+      <c r="K5" t="s">
+        <v>941</v>
+      </c>
+      <c r="L5" t="s">
+        <v>942</v>
+      </c>
+      <c r="M5" t="s">
+        <v>943</v>
+      </c>
+      <c r="N5" t="s">
+        <v>944</v>
+      </c>
+      <c r="O5" t="s">
+        <v>945</v>
+      </c>
+      <c r="P5" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>947</v>
+      </c>
+      <c r="R5" t="s">
+        <v>948</v>
+      </c>
+      <c r="U5" t="s">
+        <v>949</v>
+      </c>
+      <c r="V5" t="s">
+        <v>950</v>
+      </c>
+      <c r="W5" t="s">
+        <v>951</v>
+      </c>
+      <c r="X5" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>953</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>954</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>944</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>955</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>947</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>956</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>957</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>945</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>958</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>959</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>960</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>961</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>962</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>963</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>964</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>965</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>966</v>
+      </c>
+      <c r="B6" t="s">
+        <v>967</v>
+      </c>
+      <c r="D6" t="s">
+        <v>968</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>969</v>
+      </c>
+      <c r="G6" t="s">
+        <v>970</v>
+      </c>
+      <c r="H6" t="s">
+        <v>971</v>
+      </c>
+      <c r="I6" t="s">
+        <v>972</v>
+      </c>
+      <c r="J6" t="s">
+        <v>973</v>
+      </c>
+      <c r="K6" t="s">
+        <v>974</v>
+      </c>
+      <c r="M6" t="s">
+        <v>975</v>
+      </c>
+      <c r="N6" t="s">
+        <v>976</v>
+      </c>
+      <c r="O6" t="s">
+        <v>977</v>
+      </c>
+      <c r="P6" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>979</v>
+      </c>
+      <c r="R6" t="s">
+        <v>703</v>
+      </c>
+      <c r="U6" t="s">
+        <v>980</v>
+      </c>
+      <c r="V6" t="s">
+        <v>981</v>
+      </c>
+      <c r="W6" t="s">
+        <v>982</v>
+      </c>
+      <c r="X6" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>984</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>976</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>979</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>987</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>988</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>969</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>990</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>992</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" t="s">
+        <v>994</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>995</v>
+      </c>
+      <c r="H7" t="s">
+        <v>996</v>
+      </c>
+      <c r="I7" t="s">
+        <v>997</v>
+      </c>
+      <c r="K7" t="s">
+        <v>998</v>
+      </c>
+      <c r="M7" t="s">
+        <v>999</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G8" t="s">
         <v>158</v>
       </c>
-      <c r="F4" t="s">
-        <v>905</v>
-      </c>
-      <c r="G4" t="s">
-        <v>906</v>
-      </c>
-      <c r="H4" t="s">
-        <v>907</v>
-      </c>
-      <c r="I4" t="s">
-        <v>908</v>
-      </c>
-      <c r="J4" t="s">
-        <v>909</v>
-      </c>
-      <c r="K4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" t="s">
-        <v>910</v>
-      </c>
-      <c r="M4" t="s">
-        <v>911</v>
-      </c>
-      <c r="N4" t="s">
-        <v>912</v>
-      </c>
-      <c r="O4" t="s">
-        <v>913</v>
-      </c>
-      <c r="P4" t="s">
-        <v>914</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>915</v>
-      </c>
-      <c r="R4" t="s">
-        <v>903</v>
-      </c>
-      <c r="S4" t="s">
-        <v>903</v>
-      </c>
-      <c r="T4" t="s">
-        <v>916</v>
-      </c>
-      <c r="U4" t="s">
-        <v>917</v>
-      </c>
-      <c r="V4" t="s">
-        <v>918</v>
-      </c>
-      <c r="W4" t="s">
-        <v>919</v>
-      </c>
-      <c r="X4" t="s">
-        <v>903</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>920</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>921</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>922</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>911</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>923</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>914</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>924</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>925</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>912</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>926</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>927</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>928</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>929</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>930</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>931</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>932</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>933</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>903</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>919</v>
+      <c r="H8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="X8" t="s">
+        <v>969</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>703</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>969</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
-      <c r="A5" t="s">
-        <v>934</v>
-      </c>
-      <c r="B5" t="s">
-        <v>935</v>
-      </c>
-      <c r="D5" t="s">
-        <v>936</v>
-      </c>
-      <c r="E5" t="s">
-        <v>937</v>
-      </c>
-      <c r="F5" t="s">
-        <v>938</v>
-      </c>
-      <c r="G5" t="s">
-        <v>939</v>
-      </c>
-      <c r="H5" t="s">
-        <v>940</v>
-      </c>
-      <c r="I5" t="s">
-        <v>941</v>
-      </c>
-      <c r="J5" t="s">
-        <v>942</v>
-      </c>
-      <c r="K5" t="s">
-        <v>943</v>
-      </c>
-      <c r="L5" t="s">
-        <v>944</v>
-      </c>
-      <c r="M5" t="s">
-        <v>945</v>
-      </c>
-      <c r="N5" t="s">
-        <v>946</v>
-      </c>
-      <c r="O5" t="s">
-        <v>947</v>
-      </c>
-      <c r="P5" t="s">
-        <v>948</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>949</v>
-      </c>
-      <c r="T5" t="s">
-        <v>950</v>
-      </c>
-      <c r="U5" t="s">
-        <v>951</v>
-      </c>
-      <c r="V5" t="s">
-        <v>952</v>
-      </c>
-      <c r="W5" t="s">
-        <v>953</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>954</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>955</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>945</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>956</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>948</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>957</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>958</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>946</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>959</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>960</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>961</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>962</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>963</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>964</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>965</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>966</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>953</v>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>1045</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
-      <c r="A6" t="s">
-        <v>967</v>
-      </c>
-      <c r="B6" t="s">
-        <v>968</v>
-      </c>
-      <c r="D6" t="s">
-        <v>969</v>
-      </c>
-      <c r="E6" t="s">
-        <v>970</v>
-      </c>
-      <c r="F6" t="s">
-        <v>971</v>
-      </c>
-      <c r="G6" t="s">
-        <v>972</v>
-      </c>
-      <c r="H6" t="s">
-        <v>973</v>
-      </c>
-      <c r="I6" t="s">
-        <v>974</v>
-      </c>
-      <c r="J6" t="s">
-        <v>975</v>
-      </c>
-      <c r="L6" t="s">
-        <v>976</v>
-      </c>
-      <c r="M6" t="s">
-        <v>977</v>
-      </c>
-      <c r="N6" t="s">
-        <v>978</v>
-      </c>
-      <c r="O6" t="s">
-        <v>979</v>
-      </c>
-      <c r="P6" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>704</v>
-      </c>
-      <c r="T6" t="s">
-        <v>981</v>
-      </c>
-      <c r="U6" t="s">
-        <v>982</v>
-      </c>
-      <c r="V6" t="s">
-        <v>983</v>
-      </c>
-      <c r="W6" t="s">
-        <v>984</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>985</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>986</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>977</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>980</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>987</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>988</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>989</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>990</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>970</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>991</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>992</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>993</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>984</v>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>1055</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
-      <c r="A7" t="s">
-        <v>994</v>
-      </c>
-      <c r="B7" t="s">
-        <v>995</v>
-      </c>
-      <c r="F7" t="s">
-        <v>996</v>
-      </c>
-      <c r="G7" t="s">
-        <v>997</v>
-      </c>
-      <c r="H7" t="s">
-        <v>998</v>
-      </c>
-      <c r="J7" t="s">
-        <v>999</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="V7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>1007</v>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>1062</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="W8" t="s">
-        <v>970</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>704</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>970</v>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>1067</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
-      <c r="A9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="U9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>1046</v>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1071</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
-      <c r="A10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>1056</v>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1074</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
-      <c r="B11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1059</v>
-      </c>
-      <c r="U11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>1063</v>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1077</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
-      <c r="H12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>1068</v>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1080</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
-      <c r="U13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>1072</v>
+    <row r="17" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1082</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
-      <c r="U14" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>1075</v>
+    <row r="18" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1084</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
-      <c r="U15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>1078</v>
+    <row r="19" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>1086</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
-      <c r="U16" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>1081</v>
+    <row r="20" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>1088</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
-      <c r="AN17" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="40:41">
-      <c r="AN18" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="19" spans="40:41">
-      <c r="AN19" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="20" spans="40:41">
-      <c r="AN20" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AO20" t="s">
+    <row r="21" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO21" t="s">
         <v>1089</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41">
-      <c r="AN21" t="s">
-        <v>1090</v>
       </c>
     </row>
   </sheetData>
